--- a/dev/spurious_correlations.xlsx
+++ b/dev/spurious_correlations.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,22 +385,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>var1_unit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>var2_unit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>var1_value</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>var2_value</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>source</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>var2_source</t>
         </is>
       </c>
     </row>
@@ -410,31 +415,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F2">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>18.079</v>
+      </c>
+      <c r="I2">
         <v>5427</v>
       </c>
-      <c r="G2">
-        <v>18.079</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -446,31 +461,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F3">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>18.594</v>
+      </c>
+      <c r="I3">
         <v>5688</v>
       </c>
-      <c r="G3">
-        <v>18.594</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -482,31 +507,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F4">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>19.753</v>
+      </c>
+      <c r="I4">
         <v>6198</v>
       </c>
-      <c r="G4">
-        <v>19.753</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -518,31 +553,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F5">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>20.734</v>
+      </c>
+      <c r="I5">
         <v>6462</v>
       </c>
-      <c r="G5">
-        <v>20.734</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -554,31 +599,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F6">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>20.831</v>
+      </c>
+      <c r="I6">
         <v>6635</v>
       </c>
-      <c r="G6">
-        <v>20.831</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -590,31 +645,41 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F7">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>23.029</v>
+      </c>
+      <c r="I7">
         <v>7336</v>
       </c>
-      <c r="G7">
-        <v>23.029</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -626,31 +691,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F8">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>23.597</v>
+      </c>
+      <c r="I8">
         <v>7248</v>
       </c>
-      <c r="G8">
-        <v>23.597</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -662,31 +737,41 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F9">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>23.584</v>
+      </c>
+      <c r="I9">
         <v>7491</v>
       </c>
-      <c r="G9">
-        <v>23.584</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -698,31 +783,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F10">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>25.525</v>
+      </c>
+      <c r="I10">
         <v>8161</v>
       </c>
-      <c r="G10">
-        <v>25.525</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -734,31 +829,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F11">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>27.731</v>
+      </c>
+      <c r="I11">
         <v>8578</v>
       </c>
-      <c r="G11">
-        <v>27.731</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -770,31 +875,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>US spending on science, space, and technology</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Suicides by hanging, strangulation and suffocation</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>US spending on science, space, and technology</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hanging suicides</t>
+          <t>US spending on science</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>US spending on science</t>
-        </is>
-      </c>
-      <c r="F12">
+          <t>Suicides</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>29.449</v>
+      </c>
+      <c r="I12">
         <v>9000</v>
       </c>
-      <c r="G12">
-        <v>29.449</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>U.S. Office of Management and Budget and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -824,13 +939,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F13">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H13">
         <v>109</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -860,13 +985,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F14">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H14">
         <v>102</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -896,13 +1031,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H15">
         <v>102</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -932,13 +1077,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H16">
         <v>98</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -968,13 +1123,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F17">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H17">
         <v>85</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -1004,13 +1169,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F18">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H18">
         <v>95</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -1040,13 +1215,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H19">
         <v>96</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -1076,13 +1261,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F20">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H20">
         <v>98</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -1112,13 +1307,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H21">
         <v>123</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -1148,13 +1353,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F22">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H22">
         <v>94</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -1184,13 +1399,23 @@
           <t>Nicholas Cage</t>
         </is>
       </c>
-      <c r="F23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>drownings</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="H23">
         <v>102</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Internet Movie spurious_correlationsbase</t>
         </is>
@@ -1202,31 +1427,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H24">
+        <v>29.8</v>
+      </c>
+      <c r="I24">
         <v>327</v>
       </c>
-      <c r="G24">
-        <v>29.8</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1238,31 +1473,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H25">
+        <v>30.1</v>
+      </c>
+      <c r="I25">
         <v>456</v>
       </c>
-      <c r="G25">
-        <v>30.1</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1274,31 +1519,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H26">
+        <v>30.5</v>
+      </c>
+      <c r="I26">
         <v>509</v>
       </c>
-      <c r="G26">
-        <v>30.5</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1310,31 +1565,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H27">
+        <v>30.6</v>
+      </c>
+      <c r="I27">
         <v>497</v>
       </c>
-      <c r="G27">
-        <v>30.6</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1346,31 +1611,41 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F28">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H28">
+        <v>31.3</v>
+      </c>
+      <c r="I28">
         <v>596</v>
       </c>
-      <c r="G28">
-        <v>31.3</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1382,31 +1657,41 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F29">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H29">
+        <v>31.7</v>
+      </c>
+      <c r="I29">
         <v>573</v>
       </c>
-      <c r="G29">
-        <v>31.7</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1418,31 +1703,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F30">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H30">
+        <v>32.6</v>
+      </c>
+      <c r="I30">
         <v>661</v>
       </c>
-      <c r="G30">
-        <v>32.6</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1454,31 +1749,41 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F31">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H31">
+        <v>33.1</v>
+      </c>
+      <c r="I31">
         <v>741</v>
       </c>
-      <c r="G31">
-        <v>33.1</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1490,31 +1795,41 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F32">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H32">
+        <v>32.7</v>
+      </c>
+      <c r="I32">
         <v>809</v>
       </c>
-      <c r="G32">
-        <v>32.7</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1526,31 +1841,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Per capita cheese consumption</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Number of people who died by becoming tangled in their bedsheets</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Per capita cheese consumption</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Cheese consumed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Bedsheet tanglings</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Cheese consumed</t>
-        </is>
-      </c>
-      <c r="F33">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H33">
+        <v>32.8</v>
+      </c>
+      <c r="I33">
         <v>717</v>
       </c>
-      <c r="G33">
-        <v>32.8</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>U.S. Department of Agriculture and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1558,395 +1883,505 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>24</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F35">
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H35">
+        <v>4.7</v>
+      </c>
+      <c r="I35">
         <v>7</v>
       </c>
-      <c r="G35">
-        <v>24</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
-      <c r="G36">
-        <v>24</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H36">
+        <v>4.6</v>
+      </c>
+      <c r="I36">
+        <v>6.5</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>21</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H37">
+        <v>4.4</v>
+      </c>
+      <c r="I37">
+        <v>5.3</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <v>22</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H38">
+        <v>4.3</v>
+      </c>
+      <c r="I38">
+        <v>5.2</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>21</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H39">
+        <v>4.1</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40">
-        <v>24</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H40">
+        <v>4.2</v>
+      </c>
+      <c r="I40">
+        <v>4.6</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>22</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H41">
+        <v>4.2</v>
+      </c>
+      <c r="I41">
+        <v>4.5</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>20</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H42">
+        <v>4.2</v>
+      </c>
+      <c r="I42">
+        <v>4.2</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Murders by steam, hot vapours and hot objects</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
+          <t>Per capita consumption of margarine</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Murders by steam</t>
+          <t>Divorce rate in Maine</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <v>19</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
+          <t>Margarine consumed</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="H43">
+        <v>4.1</v>
+      </c>
+      <c r="I43">
+        <v>3.7</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>National Vital Statistics Reports and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Age of Miss America</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Age of Miss America</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Murders by steam</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Age of Miss America</t>
-        </is>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>22</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H44">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
@@ -1958,33 +2393,43 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F45">
-        <v>861</v>
-      </c>
-      <c r="G45">
-        <v>1.196</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H45">
+        <v>24</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -1994,33 +2439,43 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F46">
-        <v>830</v>
-      </c>
-      <c r="G46">
-        <v>1.176</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H46">
+        <v>24</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2030,33 +2485,43 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F47">
-        <v>809</v>
-      </c>
-      <c r="G47">
-        <v>1.269</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2066,33 +2531,43 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F48">
-        <v>867</v>
-      </c>
-      <c r="G48">
-        <v>1.24</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H48">
+        <v>22</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2102,33 +2577,43 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F49">
-        <v>948</v>
-      </c>
-      <c r="G49">
-        <v>1.307</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H49">
+        <v>21</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2138,33 +2623,43 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F50">
-        <v>1129</v>
-      </c>
-      <c r="G50">
-        <v>1.435</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H50">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2174,33 +2669,43 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F51">
-        <v>1453</v>
-      </c>
-      <c r="G51">
-        <v>1.601</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H51">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2210,33 +2715,43 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F52">
-        <v>1656</v>
-      </c>
-      <c r="G52">
-        <v>1.654</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2246,33 +2761,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F53">
-        <v>1787</v>
-      </c>
-      <c r="G53">
-        <v>1.803</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H53">
+        <v>19</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
@@ -2282,427 +2807,547 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Computer science doctorates awarded in the US</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Total revenue generated by arcades</t>
+          <t>Murders by steam, hot vapours and hot objects</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Computer science doctorates</t>
+          <t>Age of Miss America</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Arcade revenue</t>
-        </is>
-      </c>
-      <c r="F54">
-        <v>1611</v>
-      </c>
-      <c r="G54">
-        <v>1.734</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>U.S. Census Bureau and National Science Foundation</t>
+          <t>Murders by steam</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>murders</t>
+        </is>
+      </c>
+      <c r="H54">
+        <v>22</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Wikipedia and Centers for Disease Control &amp; Prevention</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F55">
-        <v>601</v>
-      </c>
-      <c r="G55">
-        <v>54</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H55">
+        <v>1.196</v>
+      </c>
+      <c r="I55">
+        <v>861</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F56">
-        <v>579</v>
-      </c>
-      <c r="G56">
-        <v>46</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H56">
+        <v>1.176</v>
+      </c>
+      <c r="I56">
+        <v>830</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F57">
-        <v>572</v>
-      </c>
-      <c r="G57">
-        <v>42</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H57">
+        <v>1.269</v>
+      </c>
+      <c r="I57">
+        <v>809</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F58">
-        <v>617</v>
-      </c>
-      <c r="G58">
-        <v>50</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H58">
+        <v>1.24</v>
+      </c>
+      <c r="I58">
+        <v>867</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F59">
-        <v>566</v>
-      </c>
-      <c r="G59">
-        <v>43</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H59">
+        <v>1.307</v>
+      </c>
+      <c r="I59">
+        <v>948</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F60">
-        <v>547</v>
-      </c>
-      <c r="G60">
-        <v>41</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H60">
+        <v>1.435</v>
+      </c>
+      <c r="I60">
+        <v>1129</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F61">
-        <v>597</v>
-      </c>
-      <c r="G61">
-        <v>46</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H61">
+        <v>1.601</v>
+      </c>
+      <c r="I61">
+        <v>1453</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F62">
-        <v>580</v>
-      </c>
-      <c r="G62">
-        <v>39</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H62">
+        <v>1.654</v>
+      </c>
+      <c r="I62">
+        <v>1656</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F63">
-        <v>536</v>
-      </c>
-      <c r="G63">
-        <v>37</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H63">
+        <v>1.803</v>
+      </c>
+      <c r="I63">
+        <v>1787</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sociology doctorates awarded in the US</t>
+          <t>Total revenue generated by arcades</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Worldwide non-commercial space launches</t>
+          <t>Computer science doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sociology doctorates</t>
+          <t>Arcade revenue</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F64">
-        <v>579</v>
-      </c>
-      <c r="G64">
-        <v>45</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Federal Aviation Administration</t>
+          <t>Computer science doctorates</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>billion</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H64">
+        <v>1.734</v>
+      </c>
+      <c r="I64">
+        <v>1611</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>U.S. Census Bureau and National Science Foundation</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Worldwide non-commercial space launches</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Worldwide non-commercial space launches</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>Space launches</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>Sociology doctorates</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F65">
-        <v>576</v>
-      </c>
-      <c r="G65">
-        <v>45</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H65">
+        <v>54</v>
+      </c>
+      <c r="I65">
+        <v>601</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
@@ -2710,35 +3355,45 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>Worldwide non-commercial space launches</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Worldwide non-commercial space launches</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>Space launches</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Sociology doctorates</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F66">
-        <v>601</v>
-      </c>
-      <c r="G66">
-        <v>41</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H66">
+        <v>46</v>
+      </c>
+      <c r="I66">
+        <v>579</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
@@ -2746,35 +3401,45 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>Worldwide non-commercial space launches</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Worldwide non-commercial space launches</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>Space launches</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>Sociology doctorates</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Space launches</t>
-        </is>
-      </c>
-      <c r="F67">
-        <v>664</v>
-      </c>
-      <c r="G67">
-        <v>54</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H67">
+        <v>42</v>
+      </c>
+      <c r="I67">
+        <v>572</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
@@ -2786,33 +3451,43 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F68">
-        <v>480</v>
-      </c>
-      <c r="G68">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>617</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -2822,33 +3497,43 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F69">
-        <v>501</v>
-      </c>
-      <c r="G69">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H69">
+        <v>43</v>
+      </c>
+      <c r="I69">
+        <v>566</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -2858,33 +3543,43 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F70">
-        <v>540</v>
-      </c>
-      <c r="G70">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H70">
+        <v>41</v>
+      </c>
+      <c r="I70">
+        <v>547</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -2894,33 +3589,43 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F71">
-        <v>552</v>
-      </c>
-      <c r="G71">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H71">
+        <v>46</v>
+      </c>
+      <c r="I71">
+        <v>597</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -2930,33 +3635,43 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F72">
-        <v>547</v>
-      </c>
-      <c r="G72">
-        <v>9.9</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H72">
+        <v>39</v>
+      </c>
+      <c r="I72">
+        <v>580</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -2966,33 +3681,43 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F73">
-        <v>622</v>
-      </c>
-      <c r="G73">
-        <v>10.2</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H73">
+        <v>37</v>
+      </c>
+      <c r="I73">
+        <v>536</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -3002,33 +3727,43 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F74">
-        <v>655</v>
-      </c>
-      <c r="G74">
-        <v>10.5</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H74">
+        <v>45</v>
+      </c>
+      <c r="I74">
+        <v>579</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -3038,33 +3773,43 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F75">
-        <v>701</v>
-      </c>
-      <c r="G75">
-        <v>11</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H75">
+        <v>45</v>
+      </c>
+      <c r="I75">
+        <v>576</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -3074,33 +3819,43 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F76">
-        <v>712</v>
-      </c>
-      <c r="G76">
-        <v>10.6</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H76">
+        <v>41</v>
+      </c>
+      <c r="I76">
+        <v>601</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
@@ -3110,399 +3865,509 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Civil engineering doctorates awarded in the US</t>
+          <t>Worldwide non-commercial space launches</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Per capita consumption of mozzarella cheese</t>
+          <t>Sociology doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Engineering doctorates</t>
+          <t>Space launches</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mozzarella cheese consumption</t>
-        </is>
-      </c>
-      <c r="F77">
-        <v>708</v>
-      </c>
-      <c r="G77">
-        <v>10.6</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>National Science Foundation and U.S. Department of Agriculture</t>
+          <t>Sociology doctorates</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>launches</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H77">
+        <v>54</v>
+      </c>
+      <c r="I77">
+        <v>664</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Federal Aviation Administration</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F78">
-        <v>19</v>
-      </c>
-      <c r="G78">
-        <v>10.9</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H78">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I78">
+        <v>480</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F79">
-        <v>16</v>
-      </c>
-      <c r="G79">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H79">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I79">
+        <v>501</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F80">
-        <v>9</v>
-      </c>
-      <c r="G80">
-        <v>9</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H80">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I80">
+        <v>540</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F81">
-        <v>12</v>
-      </c>
-      <c r="G81">
-        <v>9</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H81">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I81">
+        <v>552</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F82">
-        <v>15</v>
-      </c>
-      <c r="G82">
-        <v>9.1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H82">
+        <v>9.9</v>
+      </c>
+      <c r="I82">
+        <v>547</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F83">
-        <v>10</v>
-      </c>
-      <c r="G83">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H83">
+        <v>10.2</v>
+      </c>
+      <c r="I83">
+        <v>622</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F84">
-        <v>11</v>
-      </c>
-      <c r="G84">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H84">
+        <v>10.5</v>
+      </c>
+      <c r="I84">
+        <v>655</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F85">
-        <v>7</v>
-      </c>
-      <c r="G85">
-        <v>8.4</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H85">
+        <v>11</v>
+      </c>
+      <c r="I85">
+        <v>701</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <v>7.8</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H86">
+        <v>10.6</v>
+      </c>
+      <c r="I86">
+        <v>712</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>People who drowned after falling out of a fishing boat</t>
+          <t>Per capita consumption of mozzarella cheese</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Marriage rate in Kentucky</t>
+          <t>Civil engineering doctorates awarded in the US</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Fishing boat deaths</t>
+          <t>Mozzarella cheese consumption</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Kentucky marriages</t>
-        </is>
-      </c>
-      <c r="F87">
-        <v>5</v>
-      </c>
-      <c r="G87">
-        <v>7.9</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
+          <t>Engineering doctorates</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="H87">
+        <v>10.6</v>
+      </c>
+      <c r="I87">
+        <v>708</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>National Science Foundation and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3524,13 +4389,23 @@
           <t>Kentucky marriages</t>
         </is>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>7.6</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H88">
+        <v>19</v>
+      </c>
+      <c r="I88">
+        <v>10.9</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
@@ -3538,7 +4413,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3560,13 +4435,23 @@
           <t>Kentucky marriages</t>
         </is>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>7.4</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H89">
+        <v>16</v>
+      </c>
+      <c r="I89">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
@@ -3574,395 +4459,505 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F90">
-        <v>76</v>
-      </c>
-      <c r="G90">
-        <v>96</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H90">
+        <v>9</v>
+      </c>
+      <c r="I90">
+        <v>9</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F91">
-        <v>74</v>
-      </c>
-      <c r="G91">
-        <v>110</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H91">
+        <v>12</v>
+      </c>
+      <c r="I91">
+        <v>9</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F92">
-        <v>76</v>
-      </c>
-      <c r="G92">
-        <v>103</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H92">
+        <v>15</v>
+      </c>
+      <c r="I92">
+        <v>9.1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F93">
-        <v>87</v>
-      </c>
-      <c r="G93">
-        <v>127</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H93">
+        <v>10</v>
+      </c>
+      <c r="I93">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F94">
-        <v>66</v>
-      </c>
-      <c r="G94">
-        <v>60</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H94">
+        <v>11</v>
+      </c>
+      <c r="I94">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F95">
-        <v>59</v>
-      </c>
-      <c r="G95">
-        <v>54</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H95">
+        <v>7</v>
+      </c>
+      <c r="I95">
+        <v>8.4</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F96">
-        <v>63</v>
-      </c>
-      <c r="G96">
-        <v>43</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>7.8</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F97">
-        <v>60</v>
-      </c>
-      <c r="G97">
-        <v>36</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97">
+        <v>7.9</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F98">
-        <v>55</v>
-      </c>
-      <c r="G98">
-        <v>20</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>7.6</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Drivers killed in collision with railway train</t>
+          <t>People who drowned after falling out of a fishing boat</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
+          <t>Marriage rate in Kentucky</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Railway train collisions</t>
+          <t>Fishing boat deaths</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F99">
-        <v>52</v>
-      </c>
-      <c r="G99">
-        <v>11</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>Kentucky marriages</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>per 1,000</t>
+        </is>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>7.4</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Vital Statistics Report</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>US crude oil imports from Norway</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>US crude oil imports from Norway</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Railway train collisions</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>US crude oil imports from Norway</t>
-        </is>
-      </c>
-      <c r="F100">
-        <v>46</v>
-      </c>
-      <c r="G100">
-        <v>22</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H100">
+        <v>96</v>
+      </c>
+      <c r="I100">
+        <v>76</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
@@ -3974,34 +4969,44 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F101">
-        <v>3.311</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H101">
+        <v>110</v>
       </c>
       <c r="I101">
-        <v>54.2</v>
+        <v>74</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4010,34 +5015,44 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F102">
-        <v>3.405</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H102">
+        <v>103</v>
       </c>
       <c r="I102">
-        <v>54</v>
+        <v>76</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4046,34 +5061,44 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F103">
-        <v>3.336</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H103">
+        <v>127</v>
       </c>
       <c r="I103">
-        <v>56.8</v>
+        <v>87</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4082,34 +5107,44 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F104">
-        <v>3.521</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H104">
+        <v>60</v>
       </c>
       <c r="I104">
-        <v>57.5</v>
+        <v>66</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4118,34 +5153,44 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F105">
-        <v>3.674</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H105">
+        <v>54</v>
       </c>
       <c r="I105">
-        <v>59.3</v>
+        <v>59</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4154,34 +5199,44 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F106">
-        <v>3.67</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H106">
+        <v>43</v>
       </c>
       <c r="I106">
-        <v>60.5</v>
+        <v>63</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4190,34 +5245,44 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F107">
-        <v>3.685</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H107">
+        <v>36</v>
       </c>
       <c r="I107">
-        <v>60.9</v>
+        <v>60</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4226,34 +5291,44 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F108">
-        <v>3.656</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H108">
+        <v>20</v>
       </c>
       <c r="I108">
-        <v>59.9</v>
+        <v>55</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4262,34 +5337,44 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F109">
-        <v>3.571</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H109">
+        <v>11</v>
       </c>
       <c r="I109">
-        <v>58.7</v>
+        <v>52</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4298,399 +5383,509 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Total US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Per capita consumption of chicken</t>
+          <t>Drivers killed in collision with railway train</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>US crude oil imports</t>
+          <t>US crude oil imports from Norway</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Chicken consumption</t>
-        </is>
-      </c>
-      <c r="F110">
-        <v>3.307</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Dept. of Energy and U.S. Department of Agriculture</t>
-        </is>
+          <t>Railway train collisions</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>million barrels</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H110">
+        <v>22</v>
       </c>
       <c r="I110">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Center for Disease Control &amp; Prevention and Dept. of Energy</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F111">
-        <v>421</v>
-      </c>
-      <c r="G111">
-        <v>728.3</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H111">
+        <v>54.2</v>
+      </c>
+      <c r="I111">
+        <v>3.311</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F112">
-        <v>465</v>
-      </c>
-      <c r="G112">
-        <v>753.9</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H112">
+        <v>54</v>
+      </c>
+      <c r="I112">
+        <v>3.405</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F113">
-        <v>494</v>
-      </c>
-      <c r="G113">
-        <v>768.8</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H113">
+        <v>56.8</v>
+      </c>
+      <c r="I113">
+        <v>3.336</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F114">
-        <v>538</v>
-      </c>
-      <c r="G114">
-        <v>780.1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H114">
+        <v>57.5</v>
+      </c>
+      <c r="I114">
+        <v>3.521</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F115">
-        <v>430</v>
-      </c>
-      <c r="G115">
-        <v>763.7</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H115">
+        <v>59.3</v>
+      </c>
+      <c r="I115">
+        <v>3.674</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F116">
-        <v>530</v>
-      </c>
-      <c r="G116">
-        <v>788.5</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H116">
+        <v>60.5</v>
+      </c>
+      <c r="I116">
+        <v>3.67</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F117">
-        <v>511</v>
-      </c>
-      <c r="G117">
-        <v>782</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H117">
+        <v>60.9</v>
+      </c>
+      <c r="I117">
+        <v>3.685</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F118">
-        <v>600</v>
-      </c>
-      <c r="G118">
-        <v>787.2</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H118">
+        <v>59.9</v>
+      </c>
+      <c r="I118">
+        <v>3.656</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F119">
-        <v>582</v>
-      </c>
-      <c r="G119">
-        <v>806.4</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H119">
+        <v>58.7</v>
+      </c>
+      <c r="I119">
+        <v>3.571</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Number of people who drowned while in a swimming-pool</t>
+          <t>Per capita consumption of chicken</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Power generated by US nuclear plants</t>
+          <t>Total US crude oil imports</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Swimming pool drownings</t>
+          <t>Chicken consumption</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Nuclear power plants</t>
-        </is>
-      </c>
-      <c r="F120">
-        <v>605</v>
-      </c>
-      <c r="G120">
-        <v>806.2</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
+          <t>US crude oil imports</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>lbs</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>billion barrels</t>
+        </is>
+      </c>
+      <c r="H120">
+        <v>56</v>
+      </c>
+      <c r="I120">
+        <v>3.307</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Dept. of Energy and U.S. Department of Agriculture</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4712,13 +5907,23 @@
           <t>Nuclear power plants</t>
         </is>
       </c>
-      <c r="F121">
-        <v>603</v>
-      </c>
-      <c r="G121">
-        <v>798.9</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H121">
+        <v>421</v>
+      </c>
+      <c r="I121">
+        <v>728.3</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
@@ -4726,395 +5931,505 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F122">
-        <v>87</v>
-      </c>
-      <c r="G122">
-        <v>758</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H122">
+        <v>465</v>
+      </c>
+      <c r="I122">
+        <v>753.9</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F123">
-        <v>103</v>
-      </c>
-      <c r="G123">
-        <v>863</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H123">
+        <v>494</v>
+      </c>
+      <c r="I123">
+        <v>768.8</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F124">
-        <v>91</v>
-      </c>
-      <c r="G124">
-        <v>837</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H124">
+        <v>538</v>
+      </c>
+      <c r="I124">
+        <v>780.1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F125">
-        <v>112</v>
-      </c>
-      <c r="G125">
-        <v>930</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H125">
+        <v>430</v>
+      </c>
+      <c r="I125">
+        <v>763.7</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F126">
-        <v>104</v>
-      </c>
-      <c r="G126">
-        <v>830</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H126">
+        <v>530</v>
+      </c>
+      <c r="I126">
+        <v>788.5</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F127">
-        <v>108</v>
-      </c>
-      <c r="G127">
-        <v>810</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H127">
+        <v>511</v>
+      </c>
+      <c r="I127">
+        <v>782</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F128">
-        <v>113</v>
-      </c>
-      <c r="G128">
-        <v>923</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H128">
+        <v>600</v>
+      </c>
+      <c r="I128">
+        <v>787.2</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F129">
-        <v>137</v>
-      </c>
-      <c r="G129">
-        <v>1154</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H129">
+        <v>582</v>
+      </c>
+      <c r="I129">
+        <v>806.4</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>131</v>
-      </c>
-      <c r="G130">
-        <v>1183</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H130">
+        <v>605</v>
+      </c>
+      <c r="I130">
+        <v>806.2</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Suicides by crashing of motor vehicle</t>
+          <t>Number of people who drowned while in a swimming-pool</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Japanese cars sold in the US</t>
+          <t>Power generated by US nuclear plants</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Suicides by crashing</t>
+          <t>Swimming pool drownings</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>129</v>
-      </c>
-      <c r="G131">
-        <v>1142</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
+          <t>Nuclear power plants</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>billion kWh</t>
+        </is>
+      </c>
+      <c r="H131">
+        <v>603</v>
+      </c>
+      <c r="I131">
+        <v>798.9</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and Dept. of Energy</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>Japanese cars sold in the US</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Japanese cars sold in the US</t>
-        </is>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>Japanese cars sold</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>Suicides by crashing</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Japanese cars sold</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>104</v>
-      </c>
-      <c r="G132">
-        <v>829</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H132">
+        <v>758</v>
+      </c>
+      <c r="I132">
+        <v>87</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
@@ -5122,395 +6437,505 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>6</v>
-      </c>
-      <c r="G133">
-        <v>9</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H133">
+        <v>863</v>
+      </c>
+      <c r="I133">
+        <v>103</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>5</v>
-      </c>
-      <c r="G134">
-        <v>8</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H134">
+        <v>837</v>
+      </c>
+      <c r="I134">
+        <v>91</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>5</v>
-      </c>
-      <c r="G135">
-        <v>11</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H135">
+        <v>930</v>
+      </c>
+      <c r="I135">
+        <v>112</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>10</v>
-      </c>
-      <c r="G136">
-        <v>12</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H136">
+        <v>830</v>
+      </c>
+      <c r="I136">
+        <v>104</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>8</v>
-      </c>
-      <c r="G137">
-        <v>11</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H137">
+        <v>810</v>
+      </c>
+      <c r="I137">
+        <v>108</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>14</v>
-      </c>
-      <c r="G138">
-        <v>13</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H138">
+        <v>923</v>
+      </c>
+      <c r="I138">
+        <v>113</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>10</v>
-      </c>
-      <c r="G139">
-        <v>12</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H139">
+        <v>1154</v>
+      </c>
+      <c r="I139">
+        <v>137</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>4</v>
-      </c>
-      <c r="G140">
-        <v>9</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H140">
+        <v>1183</v>
+      </c>
+      <c r="I140">
+        <v>131</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>8</v>
-      </c>
-      <c r="G141">
-        <v>9</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H141">
+        <v>1142</v>
+      </c>
+      <c r="I141">
+        <v>129</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Number of people killed by venomous spiders</t>
+          <t>Japanese cars sold in the US</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+          <t>Suicides by crashing of motor vehicle</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Spider deaths</t>
+          <t>Japanese cars sold</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>5</v>
-      </c>
-      <c r="G142">
-        <v>7</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
+          <t>Suicides by crashing</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>thousand cars</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="H142">
+        <v>829</v>
+      </c>
+      <c r="I142">
+        <v>104</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and U.S Bureau of Transportation Statistics</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>Spelling bee letters</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>Spider deaths</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Spelling bee letters</t>
-        </is>
-      </c>
-      <c r="F143">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H143">
+        <v>9</v>
+      </c>
+      <c r="I143">
         <v>6</v>
       </c>
-      <c r="G143">
-        <v>9</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
@@ -5518,367 +6943,467 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>1122</v>
-      </c>
-      <c r="G144">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="I144">
+        <v>5</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>1123</v>
-      </c>
-      <c r="G145">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H145">
+        <v>11</v>
+      </c>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>1177</v>
-      </c>
-      <c r="G146">
-        <v>65.8</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H146">
+        <v>12</v>
+      </c>
+      <c r="I146">
+        <v>10</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F147">
-        <v>1083</v>
-      </c>
-      <c r="G147">
-        <v>58.3</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H147">
+        <v>11</v>
+      </c>
+      <c r="I147">
+        <v>8</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>1050</v>
-      </c>
-      <c r="G148">
-        <v>54.8</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H148">
+        <v>13</v>
+      </c>
+      <c r="I148">
+        <v>14</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>1010</v>
-      </c>
-      <c r="G149">
-        <v>55.6</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H149">
+        <v>12</v>
+      </c>
+      <c r="I149">
+        <v>10</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>919</v>
-      </c>
-      <c r="G150">
-        <v>53.5</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H150">
+        <v>9</v>
+      </c>
+      <c r="I150">
+        <v>4</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F151">
-        <v>993</v>
-      </c>
-      <c r="G151">
-        <v>45.6</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H151">
+        <v>9</v>
+      </c>
+      <c r="I151">
+        <v>8</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F152">
-        <v>1076</v>
-      </c>
-      <c r="G152">
-        <v>57.7</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H152">
+        <v>7</v>
+      </c>
+      <c r="I152">
+        <v>5</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mathematics doctorates awarded</t>
+          <t>Letters in the winning word of the Scripps National Spelling Bee</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Uranium stored at nuclear power plants</t>
+          <t>Number of people killed by venomous spiders</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Math doctorates</t>
+          <t>Spelling bee letters</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Uranium stored</t>
-        </is>
-      </c>
-      <c r="F153">
-        <v>1205</v>
-      </c>
-      <c r="G153">
-        <v>64.7</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>National Science Foundation and Dept. of Energy</t>
+          <t>Spider deaths</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>deaths</t>
+        </is>
+      </c>
+      <c r="H153">
+        <v>9</v>
+      </c>
+      <c r="I153">
+        <v>6</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Centers for Disease Control &amp; Prevention and National Spelling Bee</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5900,13 +7425,23 @@
           <t>Uranium stored</t>
         </is>
       </c>
-      <c r="F154">
-        <v>1325</v>
-      </c>
-      <c r="G154">
-        <v>77.5</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H154">
+        <v>1122</v>
+      </c>
+      <c r="I154">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J154" t="inlineStr">
         <is>
           <t>National Science Foundation and Dept. of Energy</t>
         </is>
@@ -5914,7 +7449,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5936,13 +7471,23 @@
           <t>Uranium stored</t>
         </is>
       </c>
-      <c r="F155">
-        <v>1393</v>
-      </c>
-      <c r="G155">
-        <v>81.2</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H155">
+        <v>1123</v>
+      </c>
+      <c r="I155">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>National Science Foundation and Dept. of Energy</t>
         </is>
@@ -5950,35 +7495,505 @@
     </row>
     <row r="156">
       <c r="A156">
+        <v>1998</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H156">
+        <v>1177</v>
+      </c>
+      <c r="I156">
+        <v>65.8</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>1999</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H157">
+        <v>1083</v>
+      </c>
+      <c r="I157">
+        <v>58.3</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>2000</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H158">
+        <v>1050</v>
+      </c>
+      <c r="I158">
+        <v>54.8</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>2001</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H159">
+        <v>1010</v>
+      </c>
+      <c r="I159">
+        <v>55.6</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>2002</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H160">
+        <v>919</v>
+      </c>
+      <c r="I160">
+        <v>53.5</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>2003</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H161">
+        <v>993</v>
+      </c>
+      <c r="I161">
+        <v>45.6</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>2004</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H162">
+        <v>1076</v>
+      </c>
+      <c r="I162">
+        <v>57.7</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>2005</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H163">
+        <v>1205</v>
+      </c>
+      <c r="I163">
+        <v>64.7</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>2006</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H164">
+        <v>1325</v>
+      </c>
+      <c r="I164">
+        <v>77.5</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>2007</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Mathematics doctorates awarded</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Uranium stored at nuclear power plants</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Math doctorates</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Uranium stored</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H165">
+        <v>1393</v>
+      </c>
+      <c r="I165">
+        <v>81.2</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>National Science Foundation and Dept. of Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
         <v>2008</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Mathematics doctorates awarded</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>Uranium stored at nuclear power plants</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Math doctorates</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Uranium stored</t>
         </is>
       </c>
-      <c r="F156">
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>million lbs</t>
+        </is>
+      </c>
+      <c r="H166">
         <v>1399</v>
       </c>
-      <c r="G156">
+      <c r="I166">
         <v>81.90000000000001</v>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>National Science Foundation and Dept. of Energy</t>
         </is>
